--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43059,6 +43059,41 @@
         <v>65800</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>934200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43094,6 +43094,41 @@
         <v>934200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>351500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43129,6 +43129,41 @@
         <v>351500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>380000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43164,6 +43164,41 @@
         <v>380000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>62500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43199,6 +43199,41 @@
         <v>62500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>638200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43234,6 +43234,41 @@
         <v>638200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>68000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43269,6 +43269,41 @@
         <v>68000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>199000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43304,6 +43304,41 @@
         <v>199000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1478500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43339,6 +43339,41 @@
         <v>1478500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>9292600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43374,6 +43374,41 @@
         <v>9292600</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>18747100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43409,6 +43409,41 @@
         <v>18747100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>8935700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43444,6 +43444,41 @@
         <v>8935700</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>14570500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43479,6 +43479,76 @@
         <v>14570500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>8882500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>12562300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43549,6 +43549,76 @@
         <v>12562300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2495000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2622000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43619,6 +43619,41 @@
         <v>2622000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1895600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43654,6 +43654,41 @@
         <v>1895600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>5138900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43689,6 +43689,41 @@
         <v>5138900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>849900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43724,6 +43724,41 @@
         <v>849900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1598700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43759,6 +43759,76 @@
         <v>1598700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>783400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>946100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43829,6 +43829,41 @@
         <v>946100</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>567000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43864,6 +43864,41 @@
         <v>567000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1511200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2104"/>
+  <dimension ref="A1:I2105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74104,6 +74104,41 @@
         <v>1511200</v>
       </c>
     </row>
+    <row r="2105">
+      <c r="A2105" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2105" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2105" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2105" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2105" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2105" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2105" t="n">
+        <v>1462000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2105"/>
+  <dimension ref="A1:I2106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74139,6 +74139,41 @@
         <v>1462000</v>
       </c>
     </row>
+    <row r="2106">
+      <c r="A2106" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2106" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2106" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2106" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2106" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2106" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2106" t="n">
+        <v>808700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2106"/>
+  <dimension ref="A1:I2107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74174,6 +74174,41 @@
         <v>808700</v>
       </c>
     </row>
+    <row r="2107">
+      <c r="A2107" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2107" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2107" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2107" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2107" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2107" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2107" t="n">
+        <v>567000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2107"/>
+  <dimension ref="A1:I2108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74209,6 +74209,41 @@
         <v>567000</v>
       </c>
     </row>
+    <row r="2108">
+      <c r="A2108" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2108" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2108" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2108" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2108" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2108" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2108" t="n">
+        <v>3054900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2108"/>
+  <dimension ref="A1:I2109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74244,6 +74244,41 @@
         <v>3054900</v>
       </c>
     </row>
+    <row r="2109">
+      <c r="A2109" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2109" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2109" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2109" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2109" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H2109" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2109" t="n">
+        <v>1364800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2109"/>
+  <dimension ref="A1:I2110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74279,6 +74279,41 @@
         <v>1364800</v>
       </c>
     </row>
+    <row r="2110">
+      <c r="A2110" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2110" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2110" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2110" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2110" t="n">
+        <v>40100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2110"/>
+  <dimension ref="A1:I2111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74314,6 +74314,41 @@
         <v>40100</v>
       </c>
     </row>
+    <row r="2111">
+      <c r="A2111" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2111" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2111" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2111" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2111" t="n">
+        <v>2772100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2111"/>
+  <dimension ref="A1:I2112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74349,6 +74349,41 @@
         <v>2772100</v>
       </c>
     </row>
+    <row r="2112">
+      <c r="A2112" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2112" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2112" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2112" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2112" t="n">
+        <v>361000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2112"/>
+  <dimension ref="A1:I2113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74384,6 +74384,41 @@
         <v>361000</v>
       </c>
     </row>
+    <row r="2113">
+      <c r="A2113" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2113" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2113" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2113" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I2113" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2113"/>
+  <dimension ref="A1:I2114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74419,6 +74419,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="2114">
+      <c r="A2114" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2114" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2114" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H2114" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2114" t="n">
+        <v>173700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2114"/>
+  <dimension ref="A1:I2115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74454,6 +74454,41 @@
         <v>173700</v>
       </c>
     </row>
+    <row r="2115">
+      <c r="A2115" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2115" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2115" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2115" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2115" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2115"/>
+  <dimension ref="A1:I2116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74489,6 +74489,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2116">
+      <c r="A2116" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2116" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2116" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H2116" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2116" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2116"/>
+  <dimension ref="A1:I2117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74524,6 +74524,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="2117">
+      <c r="A2117" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2117" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2117" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2117" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2117" t="n">
+        <v>138800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2117"/>
+  <dimension ref="A1:I2118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74559,6 +74559,41 @@
         <v>138800</v>
       </c>
     </row>
+    <row r="2118">
+      <c r="A2118" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2118" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2118" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2118" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2118" t="n">
+        <v>10500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7114.xlsx
+++ b/data/7114.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2118"/>
+  <dimension ref="A1:I2119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74594,6 +74594,41 @@
         <v>10500</v>
       </c>
     </row>
+    <row r="2119">
+      <c r="A2119" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>7114</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>DNONCE</t>
+        </is>
+      </c>
+      <c r="E2119" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2119" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2119" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I2119" t="n">
+        <v>14900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
